--- a/backtest/doublesort 10x10 average count styled.xlsx
+++ b/backtest/doublesort 10x10 average count styled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="0" windowWidth="15680" windowHeight="8570"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="15680" windowHeight="8570"/>
   </bookViews>
   <sheets>
     <sheet name="doublesort" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Turnover</t>
   </si>
@@ -32,12 +32,24 @@
   <si>
     <t>Momentum (last month's return)</t>
   </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Our backtest</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="&quot;=&quot;0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -51,16 +63,36 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -68,26 +100,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,438 +472,1194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A2:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.08984375" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="7.26953125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="5.08984375" style="1"/>
+    <col min="3" max="12" width="7.26953125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="6.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2" style="1" customWidth="1"/>
+    <col min="15" max="24" width="7.26953125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="5.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="5" t="s">
+    <row r="2" spans="1:24" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+    </row>
+    <row r="3" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="11"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+    </row>
+    <row r="4" spans="1:24" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="2" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="1:24" s="2" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E5" s="14">
         <v>3</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F5" s="14">
         <v>4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G5" s="14">
         <v>5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H5" s="14">
         <v>6</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I5" s="14">
         <v>7</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J5" s="14">
         <v>8</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K5" s="14">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>3</v>
+      </c>
+      <c r="R5" s="3">
+        <v>4</v>
+      </c>
+      <c r="S5" s="3">
+        <v>5</v>
+      </c>
+      <c r="T5" s="3">
+        <v>6</v>
+      </c>
+      <c r="U5" s="3">
+        <v>7</v>
+      </c>
+      <c r="V5" s="3">
+        <v>8</v>
+      </c>
+      <c r="W5" s="3">
+        <v>9</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C6" s="5">
         <v>75.036753445635526</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D6" s="5">
         <v>46.330781010719754</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E6" s="5">
         <v>41.833078101071976</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F6" s="5">
         <v>39.076569678407353</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G6" s="5">
         <v>37.418070444104131</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H6" s="5">
         <v>36.725880551301685</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I6" s="5">
         <v>36.493108728943341</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J6" s="5">
         <v>37.384379785604899</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K6" s="5">
         <v>40.421133231240432</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L6" s="5">
         <v>65.055130168453289</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2">
+      <c r="M6" s="5"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="3">
+        <v>211</v>
+      </c>
+      <c r="P6" s="3">
+        <v>129</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>120</v>
+      </c>
+      <c r="R6" s="3">
+        <v>111</v>
+      </c>
+      <c r="S6" s="3">
+        <v>106</v>
+      </c>
+      <c r="T6" s="3">
+        <v>102</v>
+      </c>
+      <c r="U6" s="3">
+        <v>98</v>
+      </c>
+      <c r="V6" s="3">
+        <v>99</v>
+      </c>
+      <c r="W6" s="3">
+        <v>103</v>
+      </c>
+      <c r="X6" s="3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C7" s="5">
         <v>74.494640122511484</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D7" s="5">
         <v>45.813169984686063</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E7" s="5">
         <v>41.318529862174579</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F7" s="5">
         <v>38.555895865237368</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G7" s="5">
         <v>36.944869831546704</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H7" s="5">
         <v>36.220520673813169</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I7" s="5">
         <v>35.990811638591119</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J7" s="5">
         <v>36.901990811638591</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K7" s="5">
         <v>39.903522205206741</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L7" s="5">
         <v>64.562021439509948</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2">
+      <c r="M7" s="5"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="3">
+        <v>94</v>
+      </c>
+      <c r="P7" s="3">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>44</v>
+      </c>
+      <c r="R7" s="3">
+        <v>40</v>
+      </c>
+      <c r="S7" s="3">
+        <v>38</v>
+      </c>
+      <c r="T7" s="3">
+        <v>37</v>
+      </c>
+      <c r="U7" s="3">
+        <v>37</v>
+      </c>
+      <c r="V7" s="3">
+        <v>38</v>
+      </c>
+      <c r="W7" s="3">
+        <v>42</v>
+      </c>
+      <c r="X7" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C8" s="5">
         <v>74.623277182235839</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D8" s="5">
         <v>45.932618683001529</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E8" s="5">
         <v>41.444104134762632</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F8" s="5">
         <v>38.660030627871365</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G8" s="5">
         <v>37.022970903522207</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H8" s="5">
         <v>36.316998468606435</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I8" s="5">
         <v>36.110260336906585</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J8" s="5">
         <v>36.972434915773356</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K8" s="5">
         <v>40.018376722817763</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L8" s="5">
         <v>64.683001531393572</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2">
+      <c r="M8" s="5"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="3">
+        <v>68</v>
+      </c>
+      <c r="P8" s="3">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>34</v>
+      </c>
+      <c r="R8" s="3">
+        <v>31</v>
+      </c>
+      <c r="S8" s="3">
+        <v>29</v>
+      </c>
+      <c r="T8" s="3">
+        <v>29</v>
+      </c>
+      <c r="U8" s="3">
+        <v>29</v>
+      </c>
+      <c r="V8" s="3">
+        <v>29</v>
+      </c>
+      <c r="W8" s="3">
+        <v>33</v>
+      </c>
+      <c r="X8" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C9" s="5">
         <v>74.516079632465548</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D9" s="5">
         <v>45.816232771822357</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E9" s="5">
         <v>41.298621745788665</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F9" s="5">
         <v>38.558958652373661</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G9" s="5">
         <v>36.91883614088821</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H9" s="5">
         <v>36.232771822358345</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I9" s="5">
         <v>35.972434915773356</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J9" s="5">
         <v>36.908116385911178</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K9" s="5">
         <v>39.914241960183766</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L9" s="5">
         <v>64.552833078101074</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2">
+      <c r="M9" s="5"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="3">
+        <v>57</v>
+      </c>
+      <c r="P9" s="3">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>29</v>
+      </c>
+      <c r="R9" s="3">
+        <v>27</v>
+      </c>
+      <c r="S9" s="3">
+        <v>26</v>
+      </c>
+      <c r="T9" s="3">
+        <v>25</v>
+      </c>
+      <c r="U9" s="3">
+        <v>25</v>
+      </c>
+      <c r="V9" s="3">
+        <v>26</v>
+      </c>
+      <c r="W9" s="3">
+        <v>29</v>
+      </c>
+      <c r="X9" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C10" s="5">
         <v>74.42725880551302</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D10" s="5">
         <v>45.751914241960186</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E10" s="5">
         <v>41.223583460949463</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F10" s="5">
         <v>38.468606431852983</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G10" s="5">
         <v>36.831546707503826</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H10" s="5">
         <v>36.133231240428792</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I10" s="5">
         <v>35.897396630934153</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J10" s="5">
         <v>36.781010719754974</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K10" s="5">
         <v>39.811638591117919</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L10" s="5">
         <v>64.447166921898926</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2">
+      <c r="M10" s="5"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="3">
+        <v>51</v>
+      </c>
+      <c r="P10" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>27</v>
+      </c>
+      <c r="R10" s="3">
+        <v>25</v>
+      </c>
+      <c r="S10" s="3">
+        <v>24</v>
+      </c>
+      <c r="T10" s="3">
+        <v>24</v>
+      </c>
+      <c r="U10" s="3">
+        <v>24</v>
+      </c>
+      <c r="V10" s="3">
+        <v>25</v>
+      </c>
+      <c r="W10" s="3">
+        <v>27</v>
+      </c>
+      <c r="X10" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C11" s="5">
         <v>74.707503828483922</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D11" s="5">
         <v>46.024502297090351</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E11" s="5">
         <v>41.529862174578867</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F11" s="5">
         <v>38.75497702909648</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G11" s="5">
         <v>37.134762633996935</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H11" s="5">
         <v>36.401225114854519</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I11" s="5">
         <v>36.2052067381317</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J11" s="5">
         <v>37.085758039816234</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K11" s="5">
         <v>40.117917304747323</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L11" s="5">
         <v>64.753445635528337</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2">
+      <c r="M11" s="5"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="3">
+        <v>44</v>
+      </c>
+      <c r="P11" s="3">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>25</v>
+      </c>
+      <c r="R11" s="3">
+        <v>24</v>
+      </c>
+      <c r="S11" s="3">
+        <v>23</v>
+      </c>
+      <c r="T11" s="3">
+        <v>23</v>
+      </c>
+      <c r="U11" s="3">
+        <v>23</v>
+      </c>
+      <c r="V11" s="3">
+        <v>24</v>
+      </c>
+      <c r="W11" s="3">
+        <v>26</v>
+      </c>
+      <c r="X11" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C12" s="5">
         <v>74.632465543644713</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D12" s="5">
         <v>45.911179173047472</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E12" s="5">
         <v>41.404287901990813</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F12" s="5">
         <v>38.673813169984683</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G12" s="5">
         <v>37.013782542113326</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H12" s="5">
         <v>36.330781010719754</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I12" s="5">
         <v>36.084226646248084</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J12" s="5">
         <v>37.003062787136294</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K12" s="5">
         <v>40.006125574272588</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L12" s="5">
         <v>64.646248085758046</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2">
+      <c r="M12" s="5"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="3">
+        <v>42</v>
+      </c>
+      <c r="P12" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>25</v>
+      </c>
+      <c r="R12" s="3">
+        <v>24</v>
+      </c>
+      <c r="S12" s="3">
+        <v>23</v>
+      </c>
+      <c r="T12" s="3">
+        <v>23</v>
+      </c>
+      <c r="U12" s="3">
+        <v>23</v>
+      </c>
+      <c r="V12" s="3">
+        <v>24</v>
+      </c>
+      <c r="W12" s="3">
+        <v>26</v>
+      </c>
+      <c r="X12" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C13" s="5">
         <v>74.506891271056659</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D13" s="5">
         <v>45.837672281776413</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E13" s="5">
         <v>41.338437978560492</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F13" s="5">
         <v>38.545176110260336</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G13" s="5">
         <v>36.928024502297092</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H13" s="5">
         <v>36.218989280245026</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I13" s="5">
         <v>35.99846860643185</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J13" s="5">
         <v>36.87748851454824</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K13" s="5">
         <v>39.926493108728941</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L13" s="5">
         <v>64.5895865237366</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2">
+      <c r="M13" s="5"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="3">
+        <v>40</v>
+      </c>
+      <c r="P13" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>25</v>
+      </c>
+      <c r="R13" s="3">
+        <v>24</v>
+      </c>
+      <c r="S13" s="3">
+        <v>23</v>
+      </c>
+      <c r="T13" s="3">
+        <v>23</v>
+      </c>
+      <c r="U13" s="3">
+        <v>23</v>
+      </c>
+      <c r="V13" s="3">
+        <v>24</v>
+      </c>
+      <c r="W13" s="3">
+        <v>26</v>
+      </c>
+      <c r="X13" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C14" s="5">
         <v>74.611026033690663</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D14" s="5">
         <v>45.908116385911178</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E14" s="5">
         <v>41.424196018376726</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F14" s="5">
         <v>38.670750382848389</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G14" s="5">
         <v>37.03981623277182</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H14" s="5">
         <v>36.318529862174579</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I14" s="5">
         <v>36.102603369065847</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J14" s="5">
         <v>36.996937212863706</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K14" s="5">
         <v>39.995405819295556</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L14" s="5">
         <v>64.65543644716692</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2" t="s">
+      <c r="M14" s="5"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="3">
+        <v>39</v>
+      </c>
+      <c r="P14" s="3">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>25</v>
+      </c>
+      <c r="R14" s="3">
+        <v>25</v>
+      </c>
+      <c r="S14" s="3">
+        <v>24</v>
+      </c>
+      <c r="T14" s="3">
+        <v>24</v>
+      </c>
+      <c r="U14" s="3">
+        <v>24</v>
+      </c>
+      <c r="V14" s="3">
+        <v>25</v>
+      </c>
+      <c r="W14" s="3">
+        <v>27</v>
+      </c>
+      <c r="X14" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C15" s="5">
         <v>74.134762633996942</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D15" s="5">
         <v>45.436447166921901</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E15" s="5">
         <v>40.908116385911178</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F15" s="5">
         <v>38.189892802450231</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G15" s="5">
         <v>36.523736600306279</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H15" s="5">
         <v>35.840735068912707</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I15" s="5">
         <v>35.57427258805513</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J15" s="5">
         <v>36.499234303215928</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K15" s="5">
         <v>39.513016845329247</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L15" s="5">
         <v>64.147013782542118</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="3">
+        <v>45</v>
+      </c>
+      <c r="P15" s="3">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>31</v>
+      </c>
+      <c r="R15" s="3">
+        <v>30</v>
+      </c>
+      <c r="S15" s="3">
+        <v>30</v>
+      </c>
+      <c r="T15" s="3">
+        <v>29</v>
+      </c>
+      <c r="U15" s="3">
+        <v>30</v>
+      </c>
+      <c r="V15" s="3">
+        <v>31</v>
+      </c>
+      <c r="W15" s="3">
+        <v>33</v>
+      </c>
+      <c r="X15" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+    </row>
+    <row r="17" spans="1:25" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="17">
+        <f>SUM(C6:C15)</f>
+        <v>745.69065849923436</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" ref="D17:L17" si="0">SUM(D6:D15)</f>
+        <v>458.76263399693715</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="0"/>
+        <v>413.72281776416537</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>386.15467075038282</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="0"/>
+        <v>369.77641653905056</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="0"/>
+        <v>362.739663093415</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="0"/>
+        <v>360.42879019908116</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="0"/>
+        <v>369.41041347626344</v>
+      </c>
+      <c r="K17" s="17">
+        <f t="shared" si="0"/>
+        <v>399.62787136294025</v>
+      </c>
+      <c r="L17" s="17">
+        <f t="shared" si="0"/>
+        <v>646.09188361408883</v>
+      </c>
+      <c r="M17" s="18">
+        <f>SUM(C17:L17)</f>
+        <v>4512.405819295559</v>
+      </c>
+      <c r="O17" s="20">
+        <f>SUM(O6:O15)</f>
+        <v>691</v>
+      </c>
+      <c r="P17" s="20">
+        <f t="shared" ref="P17:X17" si="1">SUM(P6:P15)</f>
+        <v>428</v>
+      </c>
+      <c r="Q17" s="20">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
+      <c r="R17" s="20">
+        <f t="shared" si="1"/>
+        <v>361</v>
+      </c>
+      <c r="S17" s="20">
+        <f t="shared" si="1"/>
+        <v>346</v>
+      </c>
+      <c r="T17" s="20">
+        <f t="shared" si="1"/>
+        <v>339</v>
+      </c>
+      <c r="U17" s="20">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="V17" s="20">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="W17" s="20">
+        <f t="shared" si="1"/>
+        <v>372</v>
+      </c>
+      <c r="X17" s="20">
+        <f t="shared" si="1"/>
+        <v>596</v>
+      </c>
+      <c r="Y17" s="21">
+        <f>SUM(O17:X17)</f>
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="17.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:25" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="C1:L1"/>
+  <mergeCells count="5">
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="O2:X2"/>
+    <mergeCell ref="O4:X4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:L12">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="O6:X16">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -810,6 +1670,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C6:L16 C18:L18">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:L17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:X17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D17:K17 P17:W17" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>